--- a/Final Project/TopicsInDocs edited version graph of percentage of top topics.xlsx
+++ b/Final Project/TopicsInDocs edited version graph of percentage of top topics.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TopicsInDocs edited version" sheetId="1" r:id="rId1"/>
-    <sheet name="Chart1" sheetId="2" r:id="rId2"/>
-    <sheet name="Chart2" sheetId="3" r:id="rId3"/>
+    <sheet name="Chart3" sheetId="4" r:id="rId1"/>
+    <sheet name="TopicsInDocs edited version" sheetId="1" r:id="rId2"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId3"/>
+    <sheet name="Chart2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>docId</t>
   </si>
@@ -53,64 +54,7 @@
     <t>topic</t>
   </si>
   <si>
-    <t>1803 (2)</t>
-  </si>
-  <si>
-    <t>1832 (2)</t>
-  </si>
-  <si>
-    <t>1857 (2)</t>
-  </si>
-  <si>
-    <t>1864 (2)</t>
-  </si>
-  <si>
-    <t>1864.txt</t>
-  </si>
-  <si>
-    <t>1869 (2)</t>
-  </si>
-  <si>
-    <t>1873 (2)</t>
-  </si>
-  <si>
-    <t>1877 (2)</t>
-  </si>
-  <si>
-    <t>1877 (3)</t>
-  </si>
-  <si>
-    <t>1885 (2)</t>
-  </si>
-  <si>
-    <t>1896 (2)</t>
-  </si>
-  <si>
-    <t>1896 (3)</t>
-  </si>
-  <si>
-    <t>1902 (2)</t>
-  </si>
-  <si>
-    <t>1904 (2)</t>
-  </si>
-  <si>
-    <t>1909 (2)</t>
-  </si>
-  <si>
-    <t>1909 (3)</t>
-  </si>
-  <si>
-    <t>1911 (2)</t>
-  </si>
-  <si>
-    <t>1914 (2)</t>
-  </si>
-  <si>
-    <t>1919 (2)</t>
-  </si>
-  <si>
-    <t>1919 (3)</t>
+    <t>1864 .2</t>
   </si>
 </sst>
 </file>
@@ -670,6 +614,720 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TopicsInDocs edited version'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Percentage it appears</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'TopicsInDocs edited version'!$C$2:$C$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'TopicsInDocs edited version'!$D$2:$D$73</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="431994472"/>
+        <c:axId val="431996432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="431994472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431996432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="431996432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431994472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1399,7 +2057,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1519,7 +2177,7 @@
               <c:strCache>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>1803 (2)</c:v>
+                  <c:v>1803.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1803</c:v>
@@ -1540,7 +2198,7 @@
                   <c:v>1831</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1832 (2)</c:v>
+                  <c:v>1832.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1832</c:v>
@@ -1573,16 +2231,16 @@
                   <c:v>1852</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1857 (2)</c:v>
+                  <c:v>1857.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1857</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1864 (2)</c:v>
+                  <c:v>1864 .2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1864.txt</c:v>
+                  <c:v>1864</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1867</c:v>
@@ -1591,7 +2249,7 @@
                   <c:v>1868</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1869 (2)</c:v>
+                  <c:v>1869.2</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1869</c:v>
@@ -1600,7 +2258,7 @@
                   <c:v>1870</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1873 (2)</c:v>
+                  <c:v>1873.2</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1873</c:v>
@@ -1609,10 +2267,10 @@
                   <c:v>1875</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1877 (2)</c:v>
+                  <c:v>1877.2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1877 (3)</c:v>
+                  <c:v>1877.3</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1877</c:v>
@@ -1627,7 +2285,7 @@
                   <c:v>1884</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1885 (2)</c:v>
+                  <c:v>1885.2</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1885</c:v>
@@ -1654,10 +2312,10 @@
                   <c:v>1894</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1896 (2)</c:v>
+                  <c:v>1896.2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1896 (3)</c:v>
+                  <c:v>1896.3</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1896</c:v>
@@ -1669,7 +2327,7 @@
                   <c:v>1901</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1902 (2)</c:v>
+                  <c:v>1902.2</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1902</c:v>
@@ -1678,7 +2336,7 @@
                   <c:v>1903</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1904 (2)</c:v>
+                  <c:v>1904.2</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>1904</c:v>
@@ -1687,16 +2345,16 @@
                   <c:v>1905</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1909 (2)</c:v>
+                  <c:v>1909.2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1909 (3)</c:v>
+                  <c:v>1909.3</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>1909</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1911 (2)</c:v>
+                  <c:v>1911.2</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>1911</c:v>
@@ -1708,7 +2366,7 @@
                   <c:v>1913</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1914 (2)</c:v>
+                  <c:v>1914.2</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>1914</c:v>
@@ -1723,10 +2381,10 @@
                   <c:v>1918</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1919 (2)</c:v>
+                  <c:v>1919.2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1919 (3)</c:v>
+                  <c:v>1919.3</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>1919</c:v>
@@ -2218,6 +2876,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2735,6 +3433,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3262,6 +4476,17 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
@@ -3300,6 +4525,33 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8663836" cy="6289110"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -3592,7 +4844,7 @@
   <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3657,8 +4909,8 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="B2">
+        <v>1803.2</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -3881,8 +5133,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
+      <c r="B9">
+        <v>1832.2</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -4257,8 +5509,8 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>12</v>
+      <c r="B20">
+        <v>1857.2</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -4328,7 +5580,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -4365,8 +5617,8 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>14</v>
+      <c r="B23">
+        <v>1864</v>
       </c>
       <c r="C23">
         <v>18</v>
@@ -4449,8 +5701,8 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>15</v>
+      <c r="B26">
+        <v>1869.2</v>
       </c>
       <c r="C26">
         <v>12</v>
@@ -4539,8 +5791,8 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>16</v>
+      <c r="B29">
+        <v>1873.2</v>
       </c>
       <c r="C29">
         <v>12</v>
@@ -4689,8 +5941,8 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>17</v>
+      <c r="B32">
+        <v>1877.2</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -4727,8 +5979,8 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>18</v>
+      <c r="B33">
+        <v>1877.3</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -4935,8 +6187,8 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>19</v>
+      <c r="B38">
+        <v>1885.2</v>
       </c>
       <c r="C38">
         <v>10</v>
@@ -5259,8 +6511,8 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>20</v>
+      <c r="B47">
+        <v>1896.2</v>
       </c>
       <c r="C47">
         <v>14</v>
@@ -5291,8 +6543,8 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>21</v>
+      <c r="B48">
+        <v>1896.3</v>
       </c>
       <c r="C48">
         <v>12</v>
@@ -5455,8 +6707,8 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>22</v>
+      <c r="B52">
+        <v>1902.2</v>
       </c>
       <c r="C52">
         <v>7</v>
@@ -5575,8 +6827,8 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>23</v>
+      <c r="B55">
+        <v>1904.2</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -5671,8 +6923,8 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>24</v>
+      <c r="B58">
+        <v>1909.2</v>
       </c>
       <c r="C58">
         <v>14</v>
@@ -5703,8 +6955,8 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>25</v>
+      <c r="B59">
+        <v>1909.3</v>
       </c>
       <c r="C59">
         <v>14</v>
@@ -5761,8 +7013,8 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>26</v>
+      <c r="B61">
+        <v>1911.2</v>
       </c>
       <c r="C61">
         <v>14</v>
@@ -5907,8 +7159,8 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>27</v>
+      <c r="B65">
+        <v>1914.2</v>
       </c>
       <c r="C65">
         <v>14</v>
@@ -6061,8 +7313,8 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>28</v>
+      <c r="B70">
+        <v>1919.2</v>
       </c>
       <c r="C70">
         <v>7</v>
@@ -6099,8 +7351,8 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
-        <v>29</v>
+      <c r="B71">
+        <v>1919.3</v>
       </c>
       <c r="C71">
         <v>17</v>
